--- a/data/tecnicos_internos.xlsx
+++ b/data/tecnicos_internos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/Enex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{913D42AB-C6FD-423B-BA88-1672024DB87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA624355-F2B7-422B-8377-5E36A00475DF}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{913D42AB-C6FD-423B-BA88-1672024DB87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61CEA24D-732C-4AEB-A642-06C1A8FA87AE}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D5C77A97-35DD-4630-B65B-8E9E7DA9E074}"/>
   </bookViews>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF9E8CD-85C2-45A9-A343-4662B7E229E1}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -462,7 +462,7 @@
     <col min="4" max="4" width="17.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -476,7 +476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -487,13 +487,10 @@
         <v>14.7</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -504,10 +501,10 @@
         <v>14.7</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -518,10 +515,10 @@
         <v>14.7</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -532,10 +529,10 @@
         <v>14.7</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -546,10 +543,10 @@
         <v>14.7</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -560,10 +557,10 @@
         <v>14.7</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -574,7 +571,7 @@
         <v>14.7</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/data/tecnicos_internos.xlsx
+++ b/data/tecnicos_internos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{913D42AB-C6FD-423B-BA88-1672024DB87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61CEA24D-732C-4AEB-A642-06C1A8FA87AE}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{913D42AB-C6FD-423B-BA88-1672024DB87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30B8E13F-9BA1-46B9-A440-FE8352694DA0}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D5C77A97-35DD-4630-B65B-8E9E7DA9E074}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -557,7 +557,7 @@
         <v>14.7</v>
       </c>
       <c r="D7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">

--- a/data/tecnicos_internos.xlsx
+++ b/data/tecnicos_internos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{913D42AB-C6FD-423B-BA88-1672024DB87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30B8E13F-9BA1-46B9-A440-FE8352694DA0}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{913D42AB-C6FD-423B-BA88-1672024DB87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03E8E1BD-8929-4311-A92B-35E24D416C40}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D5C77A97-35DD-4630-B65B-8E9E7DA9E074}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
-    <t>Calama</t>
-  </si>
-  <si>
     <t>Orlando</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Chillán</t>
+  </si>
+  <si>
+    <t>Antofagasta</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -464,24 +464,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>14.7</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>14.7</v>
@@ -506,10 +506,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>14.7</v>
@@ -520,10 +520,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>14.7</v>
@@ -534,10 +534,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>14.7</v>
@@ -548,10 +548,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>14.7</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>14.7</v>
